--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -27,7 +27,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,6 +410,14 @@
         <v>639</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>43911</v>
+      </c>
+      <c r="B4">
+        <v>642</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,6 +418,14 @@
         <v>642</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>43912</v>
+      </c>
+      <c r="B5">
+        <v>629</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,6 +426,14 @@
         <v>629</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B6">
+        <v>636</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,6 +434,14 @@
         <v>636</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B7">
+        <v>352</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Henrik/Documents/Analyse/website/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,11 +38,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,11 +108,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -141,12 +159,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -173,14 +191,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -207,6 +226,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,14 +402,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -397,44 +419,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43909</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43910</v>
       </c>
       <c r="B3">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43911</v>
       </c>
       <c r="B4">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43912</v>
       </c>
       <c r="B5">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43913</v>
       </c>
       <c r="B6">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43914</v>
       </c>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -1,28 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Henrik/Documents/Analyse/website/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -38,11 +25,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,16 +95,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -159,12 +141,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -191,15 +173,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -226,7 +207,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,16 +382,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -419,12 +397,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43909</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43910</v>
       </c>
@@ -432,7 +410,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43911</v>
       </c>
@@ -440,7 +418,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43912</v>
       </c>
@@ -448,7 +426,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43913</v>
       </c>
@@ -456,12 +434,20 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43914</v>
       </c>
       <c r="B7">
         <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B8">
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,6 +450,14 @@
         <v>349</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B9">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,6 +458,14 @@
         <v>347</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B10">
+        <v>353</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,6 +466,14 @@
         <v>353</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B11">
+        <v>359</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,6 +474,14 @@
         <v>359</v>
       </c>
     </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B12">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -482,6 +482,14 @@
         <v>370</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B13">
+        <v>355</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,6 +490,14 @@
         <v>355</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B14">
+        <v>361</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,6 +498,14 @@
         <v>361</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B15">
+        <v>367</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,6 +506,14 @@
         <v>367</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B16">
+        <v>375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,6 +514,14 @@
         <v>375</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B17">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,6 +522,14 @@
         <v>370</v>
       </c>
     </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B18">
+        <v>354</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -530,6 +530,14 @@
         <v>354</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B19">
+        <v>352</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,6 +538,14 @@
         <v>352</v>
       </c>
     </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B20">
+        <v>349</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,6 +546,14 @@
         <v>349</v>
       </c>
     </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B21">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -554,6 +554,14 @@
         <v>347</v>
       </c>
     </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B22">
+        <v>358</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,6 +562,14 @@
         <v>358</v>
       </c>
     </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B23">
+        <v>355</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,6 +570,14 @@
         <v>355</v>
       </c>
     </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B24">
+        <v>353</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -578,6 +578,14 @@
         <v>353</v>
       </c>
     </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B25">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,6 +586,14 @@
         <v>339</v>
       </c>
     </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B26">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,6 +594,14 @@
         <v>339</v>
       </c>
     </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B27">
+        <v>348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -602,6 +602,14 @@
         <v>348</v>
       </c>
     </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B28">
+        <v>359</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,6 +610,14 @@
         <v>359</v>
       </c>
     </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B29">
+        <v>355</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,6 +618,14 @@
         <v>355</v>
       </c>
     </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B30">
+        <v>354</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -626,6 +626,14 @@
         <v>354</v>
       </c>
     </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B31">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,6 +634,14 @@
         <v>351</v>
       </c>
     </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B32">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,6 +642,14 @@
         <v>346</v>
       </c>
     </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B33">
+        <v>353</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,6 +650,14 @@
         <v>353</v>
       </c>
     </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B34">
+        <v>342</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,6 +658,14 @@
         <v>342</v>
       </c>
     </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B35">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,6 +666,14 @@
         <v>340</v>
       </c>
     </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B36">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -674,6 +674,14 @@
         <v>339</v>
       </c>
     </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B37">
+        <v>341</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,6 +682,14 @@
         <v>341</v>
       </c>
     </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B38">
+        <v>342</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,6 +690,14 @@
         <v>342</v>
       </c>
     </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B39">
+        <v>344</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Henrik/Documents/Analyse/website/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5E1690-2D4F-C441-97D0-2B6E1862FD76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -25,11 +31,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,11 +101,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -141,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,9 +187,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,6 +239,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,14 +432,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -397,12 +452,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43909</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43910</v>
       </c>
@@ -410,7 +465,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43911</v>
       </c>
@@ -418,7 +473,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43912</v>
       </c>
@@ -426,7 +481,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43913</v>
       </c>
@@ -434,7 +489,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43914</v>
       </c>
@@ -442,7 +497,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43915</v>
       </c>
@@ -450,7 +505,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43916</v>
       </c>
@@ -458,7 +513,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43917</v>
       </c>
@@ -466,7 +521,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43918</v>
       </c>
@@ -474,7 +529,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43919</v>
       </c>
@@ -482,7 +537,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43920</v>
       </c>
@@ -490,7 +545,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43921</v>
       </c>
@@ -498,7 +553,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43922</v>
       </c>
@@ -506,7 +561,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43923</v>
       </c>
@@ -514,7 +569,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43924</v>
       </c>
@@ -522,7 +577,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43925</v>
       </c>
@@ -530,7 +585,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43926</v>
       </c>
@@ -538,7 +593,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43927</v>
       </c>
@@ -546,7 +601,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43928</v>
       </c>
@@ -554,7 +609,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43929</v>
       </c>
@@ -562,7 +617,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43930</v>
       </c>
@@ -570,7 +625,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43931</v>
       </c>
@@ -578,7 +633,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43932</v>
       </c>
@@ -586,7 +641,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43933</v>
       </c>
@@ -594,7 +649,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43934</v>
       </c>
@@ -602,7 +657,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43935</v>
       </c>
@@ -610,7 +665,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43936</v>
       </c>
@@ -618,7 +673,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43937</v>
       </c>
@@ -626,7 +681,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43938</v>
       </c>
@@ -634,7 +689,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43939</v>
       </c>
@@ -642,7 +697,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43940</v>
       </c>
@@ -650,7 +705,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43941</v>
       </c>
@@ -658,7 +713,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43942</v>
       </c>
@@ -666,7 +721,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43943</v>
       </c>
@@ -674,7 +729,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43944</v>
       </c>
@@ -682,7 +737,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43945</v>
       </c>
@@ -690,12 +745,20 @@
         <v>342</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43946</v>
       </c>
       <c r="B39">
         <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B40">
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10307"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Henrik/Documents/Analyse/website/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5E1690-2D4F-C441-97D0-2B6E1862FD76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -31,11 +25,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,19 +95,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -155,7 +141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,27 +173,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,24 +207,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,19 +382,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -452,12 +397,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43909</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43910</v>
       </c>
@@ -465,7 +410,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43911</v>
       </c>
@@ -473,7 +418,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43912</v>
       </c>
@@ -481,7 +426,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43913</v>
       </c>
@@ -489,7 +434,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43914</v>
       </c>
@@ -497,7 +442,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43915</v>
       </c>
@@ -505,7 +450,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43916</v>
       </c>
@@ -513,7 +458,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43917</v>
       </c>
@@ -521,7 +466,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43918</v>
       </c>
@@ -529,7 +474,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43919</v>
       </c>
@@ -537,7 +482,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43920</v>
       </c>
@@ -545,7 +490,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43921</v>
       </c>
@@ -553,7 +498,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43922</v>
       </c>
@@ -561,7 +506,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43923</v>
       </c>
@@ -569,7 +514,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43924</v>
       </c>
@@ -577,7 +522,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43925</v>
       </c>
@@ -585,7 +530,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43926</v>
       </c>
@@ -593,7 +538,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43927</v>
       </c>
@@ -601,7 +546,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43928</v>
       </c>
@@ -609,7 +554,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43929</v>
       </c>
@@ -617,7 +562,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43930</v>
       </c>
@@ -625,7 +570,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43931</v>
       </c>
@@ -633,7 +578,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43932</v>
       </c>
@@ -641,7 +586,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43933</v>
       </c>
@@ -649,7 +594,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43934</v>
       </c>
@@ -657,7 +602,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43935</v>
       </c>
@@ -665,7 +610,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43936</v>
       </c>
@@ -673,7 +618,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43937</v>
       </c>
@@ -681,7 +626,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43938</v>
       </c>
@@ -689,7 +634,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43939</v>
       </c>
@@ -697,7 +642,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43940</v>
       </c>
@@ -705,7 +650,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43941</v>
       </c>
@@ -713,7 +658,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43942</v>
       </c>
@@ -721,7 +666,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43943</v>
       </c>
@@ -729,7 +674,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43944</v>
       </c>
@@ -737,7 +682,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43945</v>
       </c>
@@ -745,7 +690,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43946</v>
       </c>
@@ -753,12 +698,20 @@
         <v>344</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43947</v>
       </c>
       <c r="B40">
         <v>343</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B41">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,6 +714,14 @@
         <v>333</v>
       </c>
     </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B42">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,6 +722,14 @@
         <v>339</v>
       </c>
     </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B43">
+        <v>348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,6 +730,14 @@
         <v>348</v>
       </c>
     </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B44">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -738,6 +738,30 @@
         <v>356</v>
       </c>
     </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B45">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B46">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B47">
+        <v>344</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -762,6 +762,14 @@
         <v>344</v>
       </c>
     </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B48">
+        <v>344</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -770,6 +770,14 @@
         <v>344</v>
       </c>
     </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B49">
+        <v>348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -778,6 +778,14 @@
         <v>348</v>
       </c>
     </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B50">
+        <v>354</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_rolex.xlsx
+++ b/data_rolex.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -786,6 +786,238 @@
         <v>354</v>
       </c>
     </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B51">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B52">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
+        <v>43972</v>
+      </c>
+      <c r="B53">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B54">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B55">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
+        <v>44038</v>
+      </c>
+      <c r="B56">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B57">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B58">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
+        <v>44100</v>
+      </c>
+      <c r="B59">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B60">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B61">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B62">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
+        <v>44161</v>
+      </c>
+      <c r="B63">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B64">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
+        <v>44168</v>
+      </c>
+      <c r="B65">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B66">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B67">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
+        <v>44173</v>
+      </c>
+      <c r="B68">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B69">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B70">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B71">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B72">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B73">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B74">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B75">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B76">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B77">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
+        <v>44233</v>
+      </c>
+      <c r="B78">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B79">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
